--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N2">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q2">
-        <v>8.292397139361112</v>
+        <v>0.05175449319444445</v>
       </c>
       <c r="R2">
-        <v>74.63157425425001</v>
+        <v>0.46579043875</v>
       </c>
       <c r="S2">
-        <v>0.182404174463621</v>
+        <v>0.002526873440665257</v>
       </c>
       <c r="T2">
-        <v>0.182404174463621</v>
+        <v>0.002526873440665257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.418253</v>
       </c>
       <c r="O3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q3">
-        <v>5.622631078429444</v>
+        <v>0.1402200618108889</v>
       </c>
       <c r="R3">
-        <v>50.603679705865</v>
+        <v>1.261980556298</v>
       </c>
       <c r="S3">
-        <v>0.1236785169521486</v>
+        <v>0.006846136985772085</v>
       </c>
       <c r="T3">
-        <v>0.1236785169521486</v>
+        <v>0.006846136985772085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N4">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q4">
-        <v>7.478186849112778</v>
+        <v>0.02282226477222222</v>
       </c>
       <c r="R4">
-        <v>67.30368164201501</v>
+        <v>0.20540038295</v>
       </c>
       <c r="S4">
-        <v>0.1644943525705544</v>
+        <v>0.001114279575535464</v>
       </c>
       <c r="T4">
-        <v>0.1644943525705544</v>
+        <v>0.001114279575535464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H5">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N5">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q5">
-        <v>1.998219709127778</v>
+        <v>1.994286799375</v>
       </c>
       <c r="R5">
-        <v>17.98397738215</v>
+        <v>17.948581194375</v>
       </c>
       <c r="S5">
-        <v>0.04395395086787544</v>
+        <v>0.09736952359821292</v>
       </c>
       <c r="T5">
-        <v>0.04395395086787544</v>
+        <v>0.09736952359821292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H6">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.418253</v>
       </c>
       <c r="O6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q6">
-        <v>1.354885933374111</v>
+        <v>5.403183395620999</v>
       </c>
       <c r="R6">
-        <v>12.193973400367</v>
+        <v>48.62865056058899</v>
       </c>
       <c r="S6">
-        <v>0.02980282372106915</v>
+        <v>0.2638062856908395</v>
       </c>
       <c r="T6">
-        <v>0.02980282372106915</v>
+        <v>0.2638062856908395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H7">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N7">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q7">
-        <v>1.802019379837444</v>
+        <v>0.8794239602749999</v>
       </c>
       <c r="R7">
-        <v>16.218174418537</v>
+        <v>7.914815642474999</v>
       </c>
       <c r="S7">
-        <v>0.03963821942228151</v>
+        <v>0.04293720044662895</v>
       </c>
       <c r="T7">
-        <v>0.03963821942228152</v>
+        <v>0.04293720044662895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H8">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N8">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O8">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P8">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q8">
-        <v>7.331146145122222</v>
+        <v>0.411073455</v>
       </c>
       <c r="R8">
-        <v>65.9803153061</v>
+        <v>3.699661095</v>
       </c>
       <c r="S8">
-        <v>0.1612599635545438</v>
+        <v>0.02007034619582569</v>
       </c>
       <c r="T8">
-        <v>0.1612599635545438</v>
+        <v>0.02007034619582569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H9">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.418253</v>
       </c>
       <c r="O9">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P9">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q9">
-        <v>4.970858180490889</v>
+        <v>1.113734126472</v>
       </c>
       <c r="R9">
-        <v>44.737723624418</v>
+        <v>10.023607138248</v>
       </c>
       <c r="S9">
-        <v>0.1093417581852616</v>
+        <v>0.05437721462311048</v>
       </c>
       <c r="T9">
-        <v>0.1093417581852616</v>
+        <v>0.05437721462311048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H10">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N10">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O10">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P10">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q10">
-        <v>6.611318750177555</v>
+        <v>0.1812717438</v>
       </c>
       <c r="R10">
-        <v>59.50186875159799</v>
+        <v>1.6314456942</v>
       </c>
       <c r="S10">
-        <v>0.1454262402626445</v>
+        <v>0.00885045387712281</v>
       </c>
       <c r="T10">
-        <v>0.1454262402626445</v>
+        <v>0.008850453877122808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H11">
+        <v>144.458134</v>
+      </c>
+      <c r="I11">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J11">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05145833333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.154375</v>
+      </c>
+      <c r="O11">
+        <v>0.2409462730781657</v>
+      </c>
+      <c r="P11">
+        <v>0.2409462730781657</v>
+      </c>
+      <c r="Q11">
+        <v>2.477858270694445</v>
+      </c>
+      <c r="R11">
+        <v>22.30072443625</v>
+      </c>
+      <c r="S11">
+        <v>0.1209795298434619</v>
+      </c>
+      <c r="T11">
+        <v>0.1209795298434618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H12">
+        <v>144.458134</v>
+      </c>
+      <c r="I12">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J12">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1394176666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.418253</v>
+      </c>
+      <c r="O12">
+        <v>0.6528032489312521</v>
+      </c>
+      <c r="P12">
+        <v>0.6528032489312521</v>
+      </c>
+      <c r="Q12">
+        <v>6.713338657766889</v>
+      </c>
+      <c r="R12">
+        <v>60.420047919902</v>
+      </c>
+      <c r="S12">
+        <v>0.32777361163153</v>
+      </c>
+      <c r="T12">
+        <v>0.32777361163153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H13">
+        <v>144.458134</v>
+      </c>
+      <c r="I13">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J13">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02269166666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.068075</v>
+      </c>
+      <c r="O13">
+        <v>0.1062504779905822</v>
+      </c>
+      <c r="P13">
+        <v>0.1062504779905822</v>
+      </c>
+      <c r="Q13">
+        <v>1.092665274672222</v>
+      </c>
+      <c r="R13">
+        <v>9.83398747205</v>
+      </c>
+      <c r="S13">
+        <v>0.053348544091295</v>
+      </c>
+      <c r="T13">
+        <v>0.05334854409129498</v>
       </c>
     </row>
   </sheetData>
